--- a/Assign_1/Problem_2/Pairing_info.xlsx
+++ b/Assign_1/Problem_2/Pairing_info.xlsx
@@ -473,11 +473,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -501,758 +501,758 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E3" t="n">
         <v>178</v>
       </c>
       <c r="F3" t="n">
-        <v>706.0833333333333</v>
+        <v>381.6666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>635</v>
+        <v>805</v>
       </c>
       <c r="H3" t="n">
-        <v>1519.083333333333</v>
+        <v>1364.666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.833333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="E4" t="n">
         <v>178</v>
       </c>
       <c r="F4" t="n">
-        <v>648.8333333333333</v>
+        <v>706.0833333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>1225</v>
+        <v>635</v>
       </c>
       <c r="H4" t="n">
-        <v>2051.833333333333</v>
+        <v>1519.083333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.916666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="E5" t="n">
         <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>438.9166666666666</v>
+        <v>648.8333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>565</v>
+        <v>1225</v>
       </c>
       <c r="H5" t="n">
-        <v>1181.916666666667</v>
+        <v>2051.833333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5.333333333333334</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E6" t="n">
         <v>178</v>
       </c>
       <c r="F6" t="n">
-        <v>1221.333333333333</v>
+        <v>438.9166666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="H6" t="n">
-        <v>1399.333333333333</v>
+        <v>1181.916666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>9.333333333333332</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="E7" t="n">
         <v>178</v>
       </c>
       <c r="F7" t="n">
-        <v>2137.333333333333</v>
+        <v>1221.333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3065.333333333333</v>
+        <v>1399.333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>696</v>
+        <v>233</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>8.333333333333332</v>
+        <v>10.16666666666666</v>
       </c>
       <c r="E8" t="n">
         <v>178</v>
       </c>
       <c r="F8" t="n">
-        <v>1908.333333333333</v>
+        <v>2328.166666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="H8" t="n">
-        <v>2086.333333333333</v>
+        <v>3116.166666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>810</v>
+        <v>261</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8.166666666666666</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E9" t="n">
         <v>178</v>
       </c>
       <c r="F9" t="n">
-        <v>1870.166666666667</v>
+        <v>1908.333333333333</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2048.166666666667</v>
+        <v>2086.333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>846</v>
+        <v>738</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>738</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>8.666666666666666</v>
+        <v>6.166666666666666</v>
       </c>
       <c r="E10" t="n">
         <v>178</v>
       </c>
       <c r="F10" t="n">
-        <v>1984.666666666667</v>
+        <v>1412.166666666667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2162.666666666667</v>
+        <v>1590.166666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3163</v>
+        <v>1740</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>6.166666666666666</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E11" t="n">
         <v>178</v>
       </c>
       <c r="F11" t="n">
-        <v>1412.166666666667</v>
+        <v>2099.166666666667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1590.166666666667</v>
+        <v>2277.166666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3171</v>
+        <v>4968</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3171</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>6.666666666666666</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>178</v>
       </c>
       <c r="F12" t="n">
-        <v>1526.666666666667</v>
+        <v>687</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1704.666666666667</v>
+        <v>865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3606</v>
+        <v>5832</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8.333333333333334</v>
+        <v>7.333333333333332</v>
       </c>
       <c r="E13" t="n">
         <v>178</v>
       </c>
       <c r="F13" t="n">
-        <v>1908.333333333333</v>
+        <v>1679.333333333333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2086.333333333333</v>
+        <v>1857.333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4747</v>
+        <v>7093</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E14" t="n">
         <v>178</v>
       </c>
       <c r="F14" t="n">
-        <v>1145</v>
+        <v>1259.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="H14" t="n">
-        <v>1323</v>
+        <v>2662.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5397</v>
+        <v>8288</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5397</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>8.5</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E15" t="n">
         <v>178</v>
       </c>
       <c r="F15" t="n">
-        <v>1946.5</v>
+        <v>1984.666666666667</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2124.5</v>
+        <v>2162.666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7093</v>
+        <v>9076</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>9076</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E16" t="n">
         <v>178</v>
       </c>
       <c r="F16" t="n">
-        <v>1259.5</v>
+        <v>1335.833333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2662.5</v>
+        <v>1513.833333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8085</v>
+        <v>9590</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8085</t>
+          <t>9590</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>8.083333333333334</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="E17" t="n">
         <v>178</v>
       </c>
       <c r="F17" t="n">
-        <v>1851.083333333333</v>
+        <v>725.1666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2834.083333333333</v>
+        <v>903.1666666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9076</v>
+        <v>10162</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9076</t>
+          <t>10162</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>178</v>
       </c>
       <c r="F18" t="n">
-        <v>1335.833333333333</v>
+        <v>1145</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1513.833333333333</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>9476</v>
+        <v>10910</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9476</t>
+          <t>10910</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>10.41666666666666</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="E19" t="n">
         <v>178</v>
       </c>
       <c r="F19" t="n">
-        <v>2385.416666666666</v>
+        <v>1564.833333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3173.416666666666</v>
+        <v>1742.833333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9665</v>
+        <v>11331</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9665</t>
+          <t>11331</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>6.166666666666666</v>
+        <v>7.666666666666666</v>
       </c>
       <c r="E20" t="n">
         <v>178</v>
       </c>
       <c r="F20" t="n">
-        <v>1412.166666666667</v>
+        <v>1755.666666666667</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1590.166666666667</v>
+        <v>1933.666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9919</v>
+        <v>12900</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9919</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166666666666667</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E21" t="n">
         <v>178</v>
       </c>
       <c r="F21" t="n">
-        <v>725.1666666666666</v>
+        <v>2213.666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H21" t="n">
-        <v>903.1666666666666</v>
+        <v>3141.666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10492</v>
+        <v>13682</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10492</t>
+          <t>13682</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3.833333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="E22" t="n">
         <v>178</v>
       </c>
       <c r="F22" t="n">
-        <v>877.8333333333333</v>
+        <v>1870.166666666667</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1055.833333333333</v>
+        <v>2048.166666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11146</v>
+        <v>14239</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11146</t>
+          <t>14239</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>3.833333333333333</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="E23" t="n">
         <v>178</v>
       </c>
       <c r="F23" t="n">
-        <v>877.8333333333333</v>
+        <v>1526.666666666667</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1055.833333333333</v>
+        <v>1704.666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12011</v>
+        <v>14289</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12011</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>9.833333333333334</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="E24" t="n">
         <v>178</v>
       </c>
       <c r="F24" t="n">
-        <v>2251.833333333333</v>
+        <v>725.1666666666666</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2429.833333333333</v>
+        <v>903.1666666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>12437</v>
+        <v>14728</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12437</t>
+          <t>14728</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>3.166666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E25" t="n">
         <v>178</v>
       </c>
       <c r="F25" t="n">
-        <v>725.1666666666666</v>
+        <v>1908.333333333333</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>903.1666666666666</v>
+        <v>2086.333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>14299</v>
+        <v>14987</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14299</t>
+          <t>14987</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>7.5</v>
+        <v>6.833333333333334</v>
       </c>
       <c r="E26" t="n">
         <v>178</v>
       </c>
       <c r="F26" t="n">
-        <v>1717.5</v>
+        <v>1564.833333333333</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1895.5</v>
+        <v>1742.833333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>15835</v>
+        <v>15553</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15835</t>
+          <t>15553</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>4.666666666666666</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="E27" t="n">
         <v>178</v>
       </c>
       <c r="F27" t="n">
-        <v>1068.666666666667</v>
+        <v>1526.666666666667</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1246.666666666667</v>
+        <v>1704.666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>16166</v>
+        <v>15835</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16166</t>
+          <t>15835</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>7.999999999999998</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="E28" t="n">
         <v>178</v>
       </c>
       <c r="F28" t="n">
-        <v>1832</v>
+        <v>1068.666666666667</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2010</v>
+        <v>1246.666666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>16881</v>
+        <v>16166</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16881</t>
+          <t>16166</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>7.333333333333334</v>
+        <v>7.999999999999998</v>
       </c>
       <c r="E29" t="n">
         <v>178</v>
       </c>
       <c r="F29" t="n">
-        <v>1679.333333333333</v>
+        <v>1832</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1857.333333333333</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="30">
@@ -1313,198 +1313,198 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20407</v>
+        <v>20507</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20407</t>
+          <t>20507</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3.166666666666667</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E32" t="n">
         <v>178</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1666666666666</v>
+        <v>2099.166666666667</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>903.1666666666666</v>
+        <v>2277.166666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>21295</v>
+        <v>20678</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21295</t>
+          <t>20678</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="E33" t="n">
         <v>178</v>
       </c>
       <c r="F33" t="n">
-        <v>1832</v>
+        <v>1641.166666666667</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2010</v>
+        <v>1819.166666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>21353</v>
+        <v>20792</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21353</t>
+          <t>20792</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3.833333333333333</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="E34" t="n">
         <v>178</v>
       </c>
       <c r="F34" t="n">
-        <v>877.8333333333333</v>
+        <v>1526.666666666667</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1055.833333333333</v>
+        <v>1704.666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22499</v>
+        <v>21353</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22499</t>
+          <t>21353</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6.166666666666666</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="E35" t="n">
         <v>178</v>
       </c>
       <c r="F35" t="n">
-        <v>1412.166666666667</v>
+        <v>877.8333333333333</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1590.166666666667</v>
+        <v>1055.833333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22598</v>
+        <v>21791</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22598</t>
+          <t>21791</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>6.333333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E36" t="n">
         <v>178</v>
       </c>
       <c r="F36" t="n">
-        <v>1450.333333333333</v>
+        <v>1908.333333333333</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1628.333333333333</v>
+        <v>2086.333333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>23266</v>
+        <v>21991</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23266</t>
+          <t>21991</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>6.333333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="E37" t="n">
         <v>178</v>
       </c>
       <c r="F37" t="n">
-        <v>1450.333333333333</v>
+        <v>725.1666666666666</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1628.333333333333</v>
+        <v>903.1666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23317</v>
+        <v>22489</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23317</t>
+          <t>22489</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>3.833333333333333</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="E38" t="n">
         <v>178</v>
       </c>
       <c r="F38" t="n">
-        <v>877.8333333333333</v>
+        <v>1526.666666666667</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1055.833333333333</v>
+        <v>1704.666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1537,142 +1537,142 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>26654</v>
+        <v>26296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26654</t>
+          <t>26296</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>8.833333333333332</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
         <v>178</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.833333333333</v>
+        <v>916</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2200.833333333333</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>27403</v>
+        <v>28580</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27403</t>
+          <t>28580</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>6.833333333333334</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="E41" t="n">
         <v>178</v>
       </c>
       <c r="F41" t="n">
-        <v>1564.833333333333</v>
+        <v>1870.166666666667</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1742.833333333333</v>
+        <v>2048.166666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>31815</v>
+        <v>30930</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31815</t>
+          <t>30930</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="E42" t="n">
         <v>178</v>
       </c>
       <c r="F42" t="n">
-        <v>1145</v>
+        <v>1946.5</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1323</v>
+        <v>2124.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>32072</v>
+        <v>31815</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>32072</t>
+          <t>31815</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
         <v>178</v>
       </c>
       <c r="F43" t="n">
-        <v>1946.5</v>
+        <v>1145</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2124.5</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32480</v>
+        <v>32312</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>32480</t>
+          <t>32312</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5.333333333333333</v>
+        <v>7.333333333333334</v>
       </c>
       <c r="E44" t="n">
         <v>178</v>
       </c>
       <c r="F44" t="n">
-        <v>1221.333333333333</v>
+        <v>1679.333333333333</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1399.333333333333</v>
+        <v>1857.333333333333</v>
       </c>
     </row>
   </sheetData>
